--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -2,23 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_DB486587423E4CF42F19ABE7D3B21D3349122D40" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8FEF4EB4-2AF5-4ED7-AB75-395B9C7BEFA8}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{746FD108-73F5-4CB6-8996-E5548DA59164}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32865" yWindow="2595" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -142,16 +146,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,16 +472,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
@@ -533,13 +539,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -556,16 +562,16 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>44295</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
-      <c r="G2" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H2" s="7">
         <v>44309</v>
       </c>
       <c r="I2">
@@ -577,21 +583,21 @@
       <c r="K2">
         <v>20.180900000000001</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>50000000</v>
       </c>
       <c r="M2">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -601,21 +607,21 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>44295</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H3" s="7">
         <v>44309</v>
       </c>
       <c r="I3">
@@ -627,21 +633,21 @@
       <c r="K3">
         <v>20.180900000000001</v>
       </c>
-      <c r="L3" s="6">
-        <v>30000000</v>
+      <c r="L3" s="5">
+        <v>35000000</v>
       </c>
       <c r="M3">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -656,16 +662,16 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>44295</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H4" s="7">
         <v>44309</v>
       </c>
       <c r="I4">
@@ -677,21 +683,21 @@
       <c r="K4">
         <v>20.180900000000001</v>
       </c>
-      <c r="L4" s="6">
-        <v>70000000</v>
+      <c r="L4" s="5">
+        <v>15000000</v>
       </c>
       <c r="M4">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -706,16 +712,16 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>44295</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H5" s="7">
         <v>44309</v>
       </c>
       <c r="I5">
@@ -727,21 +733,21 @@
       <c r="K5">
         <v>20.180900000000001</v>
       </c>
-      <c r="L5" s="6">
-        <v>70000000</v>
+      <c r="L5" s="5">
+        <v>25000000</v>
       </c>
       <c r="M5">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -751,21 +757,21 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>44295</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H6" s="7">
         <v>44309</v>
       </c>
       <c r="I6">
@@ -777,21 +783,21 @@
       <c r="K6">
         <v>20.180900000000001</v>
       </c>
-      <c r="L6" s="6">
-        <v>80000000</v>
+      <c r="L6" s="5">
+        <v>35000000</v>
       </c>
       <c r="M6">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -801,21 +807,21 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>44295</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
-      <c r="G7" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H7" s="7">
         <v>44309</v>
       </c>
       <c r="I7">
@@ -827,21 +833,21 @@
       <c r="K7">
         <v>20.180900000000001</v>
       </c>
-      <c r="L7" s="6">
-        <v>90000000</v>
+      <c r="L7" s="5">
+        <v>45000000</v>
       </c>
       <c r="M7">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -851,21 +857,21 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>44295</v>
       </c>
       <c r="F8">
         <v>12</v>
       </c>
-      <c r="G8" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H8" s="7">
         <v>44309</v>
       </c>
       <c r="I8">
@@ -877,21 +883,21 @@
       <c r="K8">
         <v>20.180900000000001</v>
       </c>
-      <c r="L8" s="6">
-        <v>35000000</v>
+      <c r="L8" s="5">
+        <v>12000000</v>
       </c>
       <c r="M8">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -901,21 +907,21 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>44295</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H9" s="7">
         <v>44309</v>
       </c>
       <c r="I9">
@@ -927,21 +933,21 @@
       <c r="K9">
         <v>20.180900000000001</v>
       </c>
-      <c r="L9" s="6">
-        <v>25000000</v>
+      <c r="L9" s="5">
+        <v>20428571.428571399</v>
       </c>
       <c r="M9">
         <v>0.12867999999999999</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -951,21 +957,21 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>44295</v>
       </c>
       <c r="F10">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H10" s="7">
         <v>44309</v>
       </c>
       <c r="I10">
@@ -977,21 +983,21 @@
       <c r="K10">
         <v>20.180900000000001</v>
       </c>
-      <c r="L10" s="6">
-        <v>44000000</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.12867999999999999</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="L10" s="5">
+        <v>17785714.285714298</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.12867999999999999</v>
+      </c>
+      <c r="N10" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1006,16 +1012,16 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
         <v>44295</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H11" s="7">
         <v>44309</v>
       </c>
       <c r="I11">
@@ -1027,21 +1033,21 @@
       <c r="K11">
         <v>20.180900000000001</v>
       </c>
-      <c r="L11" s="6">
-        <v>47472222.222222202</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.12867999999999999</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="L11" s="5">
+        <v>15142857.142857101</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.12867999999999999</v>
+      </c>
+      <c r="N11" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1051,21 +1057,21 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
         <v>44295</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
-      <c r="G12" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H12" s="7">
         <v>44309</v>
       </c>
       <c r="I12">
@@ -1077,21 +1083,21 @@
       <c r="K12">
         <v>20.180900000000001</v>
       </c>
-      <c r="L12" s="6">
-        <v>45988888.888888903</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0.12867999999999999</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="L12" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.12867999999999999</v>
+      </c>
+      <c r="N12" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1101,21 +1107,21 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>44295</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H13" s="7">
         <v>44309</v>
       </c>
       <c r="I13">
@@ -1127,21 +1133,21 @@
       <c r="K13">
         <v>20.180900000000001</v>
       </c>
-      <c r="L13" s="6">
-        <v>44505555.5555555</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0.12867999999999999</v>
-      </c>
-      <c r="N13" s="3">
+      <c r="L13" s="5">
+        <v>9857142.8571428303</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.12867999999999999</v>
+      </c>
+      <c r="N13" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1156,16 +1162,16 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>44295</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
-      <c r="G14" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H14" s="7">
         <v>44309</v>
       </c>
       <c r="I14">
@@ -1177,21 +1183,21 @@
       <c r="K14">
         <v>20.180900000000001</v>
       </c>
-      <c r="L14" s="6">
-        <v>43022222.222222202</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.12867999999999999</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="L14" s="5">
+        <v>7214285.7142857304</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.12867999999999999</v>
+      </c>
+      <c r="N14" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1201,21 +1207,21 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="7">
         <v>44295</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
-      <c r="G15" s="2">
-        <v>44307</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="7">
+        <v>44307</v>
+      </c>
+      <c r="H15" s="7">
         <v>44309</v>
       </c>
       <c r="I15">
@@ -1227,37 +1233,37 @@
       <c r="K15">
         <v>20.180900000000001</v>
       </c>
-      <c r="L15" s="6">
-        <v>41538888.888888903</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.12867999999999999</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="L15" s="5">
+        <v>4571428.5714285299</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.12867999999999999</v>
+      </c>
+      <c r="N15" s="2">
         <v>3.8469999999999997E-2</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{746FD108-73F5-4CB6-8996-E5548DA59164}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{649ED0E2-CB4C-43CE-A23E-A084FE26E39E}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="2595" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{649ED0E2-CB4C-43CE-A23E-A084FE26E39E}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E2B5C3C-FA93-4EC7-8D8B-8D3E0389D2B5}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="2595" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E2B5C3C-FA93-4EC7-8D8B-8D3E0389D2B5}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67FA2A9B-9B31-4143-890B-1A9DFEC7D569}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="2595" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67FA2A9B-9B31-4143-890B-1A9DFEC7D569}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F586C7D-0DEA-449C-A2A7-425231476A63}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="2595" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F586C7D-0DEA-449C-A2A7-425231476A63}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA9F89D3-1A72-4573-A46D-EF85C5F9B1A9}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="2595" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA9F89D3-1A72-4573-A46D-EF85C5F9B1A9}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F9E01C30-510B-4E45-936C-3275F6FA2960}"/>
   <bookViews>
-    <workbookView xWindow="32865" yWindow="2595" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32520" yWindow="2250" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F9E01C30-510B-4E45-936C-3275F6FA2960}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A9D176A-3CA6-44B9-8EF8-E7AC3274CB9A}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="2250" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2460" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>

--- a/data/plan_base.xlsx
+++ b/data/plan_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d54ad363d82ba0fc/Documentos/GitHub/padulla/black_scholes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A9D176A-3CA6-44B9-8EF8-E7AC3274CB9A}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:40009_{48EDCEF4-549A-4538-A985-A07D60102E4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{503FB950-5965-4D80-8067-B12CF35C90DC}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2460" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
